--- a/OUTPUT_TP FINAL.xlsx
+++ b/OUTPUT_TP FINAL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2489b4ab3e3a2fa6/Escritorio/David Guzzi/Github/MECMT04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="11_AA85B2DB2049CC5C2B1661C2C91AE203F3812D74" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70FD487E-129A-4CE4-8630-1363C5722017}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="11_4F6569980AF4C574B44AF39C8E60E31B996CC677" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F15B85A5-E55C-4C0F-86BE-64F35A687442}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="describe" sheetId="1" r:id="rId1"/>
@@ -21,26 +21,15 @@
     <sheet name="medidas_globales" sheetId="6" r:id="rId6"/>
     <sheet name="variables_PCA" sheetId="7" r:id="rId7"/>
     <sheet name="coeficientespca" sheetId="8" r:id="rId8"/>
+    <sheet name="variables_PCA_2" sheetId="9" r:id="rId9"/>
+    <sheet name="coeficientespca_2" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="40">
   <si>
     <t>index</t>
   </si>
@@ -154,15 +143,18 @@
   </si>
   <si>
     <t>Componente 7</t>
+  </si>
+  <si>
+    <t>N° de Componente</t>
+  </si>
+  <si>
+    <t>Varianza Explicada Acum.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -177,6 +169,7 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -216,24 +209,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -533,419 +530,545 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>39</v>
+      </c>
+      <c r="C2">
+        <v>39</v>
+      </c>
+      <c r="D2">
+        <v>39</v>
+      </c>
+      <c r="E2">
+        <v>39</v>
+      </c>
+      <c r="F2">
+        <v>39</v>
+      </c>
+      <c r="G2">
+        <v>39</v>
+      </c>
+      <c r="H2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>0.38346593855138372</v>
+      </c>
+      <c r="C3">
+        <v>0.18268559024492401</v>
+      </c>
+      <c r="D3">
+        <v>2.406381022009552E-2</v>
+      </c>
+      <c r="E3">
+        <v>1.369019558533242E-2</v>
+      </c>
+      <c r="F3">
+        <v>2.409917060672833E-2</v>
+      </c>
+      <c r="G3">
+        <v>5.0710262906052093E-2</v>
+      </c>
+      <c r="H3">
+        <v>0.21251384615384619</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>0.17300285478797811</v>
+      </c>
+      <c r="C4">
+        <v>0.1363523622882217</v>
+      </c>
+      <c r="D4">
+        <v>2.8457990018993941E-2</v>
+      </c>
+      <c r="E4">
+        <v>6.3458369779488943E-3</v>
+      </c>
+      <c r="F4">
+        <v>1.6199717611830901E-2</v>
+      </c>
+      <c r="G4">
+        <v>4.3973730441031117E-2</v>
+      </c>
+      <c r="H4">
+        <v>0.1125167067271014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>2.6958920168504551E-2</v>
+      </c>
+      <c r="C5">
+        <v>1.2000396707329169E-2</v>
+      </c>
+      <c r="D5">
+        <v>1.4103738319409529E-3</v>
+      </c>
+      <c r="E5">
+        <v>5.4951008198325579E-3</v>
+      </c>
+      <c r="F5">
+        <v>2.153687442125597E-3</v>
+      </c>
+      <c r="G5">
+        <v>6.81636733242538E-3</v>
+      </c>
+      <c r="H5">
+        <v>1.9590000000000031E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>0.29953775509803171</v>
+      </c>
+      <c r="C6">
+        <v>6.9085553593500215E-2</v>
+      </c>
+      <c r="D6">
+        <v>7.0882836218998232E-3</v>
+      </c>
+      <c r="E6">
+        <v>9.0258092260589104E-3</v>
+      </c>
+      <c r="F6">
+        <v>1.302420940449861E-2</v>
+      </c>
+      <c r="G6">
+        <v>2.1509545911030051E-2</v>
+      </c>
+      <c r="H6">
+        <v>0.12870999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>0.43125316574532557</v>
+      </c>
+      <c r="C7">
+        <v>0.1614035087719298</v>
+      </c>
+      <c r="D7">
+        <v>1.3094682017702241E-2</v>
+      </c>
+      <c r="E7">
+        <v>1.149590573646671E-2</v>
+      </c>
+      <c r="F7">
+        <v>1.9072957231200199E-2</v>
+      </c>
+      <c r="G7">
+        <v>3.7782955541329197E-2</v>
+      </c>
+      <c r="H7">
+        <v>0.19291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>0.48352821920827649</v>
+      </c>
+      <c r="C8">
+        <v>0.26749100276440718</v>
+      </c>
+      <c r="D8">
+        <v>2.6729494563288929E-2</v>
+      </c>
+      <c r="E8">
+        <v>1.7546050756001401E-2</v>
+      </c>
+      <c r="F8">
+        <v>3.3223125854808452E-2</v>
+      </c>
+      <c r="G8">
+        <v>6.1308241336042443E-2</v>
+      </c>
+      <c r="H8">
+        <v>0.28810000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>0.7242299880130616</v>
+      </c>
+      <c r="C9">
+        <v>0.59898300000000015</v>
+      </c>
+      <c r="D9">
+        <v>0.11678043453866881</v>
+      </c>
+      <c r="E9">
+        <v>2.908297700369961E-2</v>
+      </c>
+      <c r="F9">
+        <v>6.4107208216831274E-2</v>
+      </c>
+      <c r="G9">
+        <v>0.18108628564825699</v>
+      </c>
+      <c r="H9">
+        <v>0.46271000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>0.45115572830674261</v>
+      </c>
+      <c r="C10">
+        <v>0.74637721620745234</v>
+      </c>
+      <c r="D10">
+        <v>1.1826053213812691</v>
+      </c>
+      <c r="E10">
+        <v>0.46353150606173799</v>
+      </c>
+      <c r="F10">
+        <v>0.6722105866708975</v>
+      </c>
+      <c r="G10">
+        <v>0.86715642793054826</v>
+      </c>
+      <c r="H10">
+        <v>0.52945588611504713</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>-0.34349604818126611</v>
+      </c>
+      <c r="C11">
+        <v>0.88617490088455053</v>
+      </c>
+      <c r="D11">
+        <v>4.3522063342909751</v>
+      </c>
+      <c r="E11">
+        <v>0.10506793894278089</v>
+      </c>
+      <c r="F11">
+        <v>0.42832078564486631</v>
+      </c>
+      <c r="G11">
+        <v>1.944888270539727</v>
+      </c>
+      <c r="H11">
+        <v>-0.3565512206583108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>-0.44146201376874872</v>
+      </c>
+      <c r="C12">
+        <v>0.91522338610821052</v>
+      </c>
+      <c r="D12">
+        <v>2.1607088697856951</v>
+      </c>
+      <c r="E12">
+        <v>1.0189791228321929</v>
+      </c>
+      <c r="F12">
+        <v>1.0542628708533299</v>
+      </c>
+      <c r="G12">
+        <v>1.590371423109616</v>
+      </c>
+      <c r="H12">
+        <v>0.56228342672301479</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="8" width="12.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B2">
+        <v>-0.35492733438125879</v>
+      </c>
+      <c r="C2">
+        <v>0.40818616238660838</v>
+      </c>
+      <c r="D2">
+        <v>-0.40553734199416669</v>
+      </c>
+      <c r="E2">
+        <v>-0.2242333611239653</v>
+      </c>
+      <c r="F2">
+        <v>0.4675374614822364</v>
+      </c>
+      <c r="G2">
+        <v>-0.50477636820285476</v>
+      </c>
+      <c r="H2">
+        <v>-0.1388490128418125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B3">
+        <v>-0.46778994831340948</v>
+      </c>
+      <c r="C3">
+        <v>0.42185378630977521</v>
+      </c>
+      <c r="D3">
+        <v>3.3443972856436327E-2</v>
+      </c>
+      <c r="E3">
+        <v>-0.35190737040129072</v>
+      </c>
+      <c r="F3">
+        <v>-9.7311030736028328E-2</v>
+      </c>
+      <c r="G3">
+        <v>0.65122856421446396</v>
+      </c>
+      <c r="H3">
+        <v>0.2113919842806968</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="B4">
+        <v>0.38516861259714591</v>
+      </c>
+      <c r="C4">
+        <v>7.6195538134861407E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.51265909763272155</v>
+      </c>
+      <c r="E4">
+        <v>-0.31286804508228372</v>
+      </c>
+      <c r="F4">
+        <v>0.64522943307437364</v>
+      </c>
+      <c r="G4">
+        <v>4.441545615412882E-2</v>
+      </c>
+      <c r="H4">
+        <v>0.25853406307151422</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="B5">
+        <v>-1.7272496215339252E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.46223569161418282</v>
+      </c>
+      <c r="D5">
+        <v>0.58675849052734652</v>
+      </c>
+      <c r="E5">
+        <v>-0.11903755577810531</v>
+      </c>
+      <c r="F5">
+        <v>-0.47006683468312038</v>
+      </c>
+      <c r="G5">
+        <v>-0.42048447755487423</v>
+      </c>
+      <c r="H5">
+        <v>-0.1726682815322233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="B6">
+        <v>0.54557518246904069</v>
+      </c>
+      <c r="C6">
+        <v>0.31327229216641661</v>
+      </c>
+      <c r="D6">
+        <v>-0.24789567206360849</v>
+      </c>
+      <c r="E6">
+        <v>-0.18066857894440019</v>
+      </c>
+      <c r="F6">
+        <v>-1.7001722644511139E-2</v>
+      </c>
+      <c r="G6">
+        <v>0.3102744588039506</v>
+      </c>
+      <c r="H6">
+        <v>-0.64308280433397558</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="B7">
+        <v>0.44950799563767307</v>
+      </c>
+      <c r="C7">
+        <v>0.40943832265038571</v>
+      </c>
+      <c r="D7">
+        <v>-0.36993287554674692</v>
+      </c>
+      <c r="E7">
+        <v>9.0417465221385926E-2</v>
+      </c>
+      <c r="F7">
+        <v>-0.2298925901196549</v>
+      </c>
+      <c r="G7">
+        <v>-0.118777667499325</v>
+      </c>
+      <c r="H7">
+        <v>0.64677541240154746</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>39</v>
-      </c>
-      <c r="C2">
-        <v>39</v>
-      </c>
-      <c r="D2">
-        <v>39</v>
-      </c>
-      <c r="E2">
-        <v>39</v>
-      </c>
-      <c r="F2">
-        <v>39</v>
-      </c>
-      <c r="G2">
-        <v>39</v>
-      </c>
-      <c r="H2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0.38346593855138372</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.18268559024492401</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2.406381022009552E-2</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1.369019558533242E-2</v>
-      </c>
-      <c r="F3" s="4">
-        <v>2.409917060672833E-2</v>
-      </c>
-      <c r="G3" s="4">
-        <v>5.0710262906052093E-2</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0.21251384615384611</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>0.17300285478797811</v>
-      </c>
-      <c r="C4">
-        <v>0.1363523622882217</v>
-      </c>
-      <c r="D4">
-        <v>2.8457990018993941E-2</v>
-      </c>
-      <c r="E4">
-        <v>6.3458369779488943E-3</v>
-      </c>
-      <c r="F4">
-        <v>1.6199717611830901E-2</v>
-      </c>
-      <c r="G4">
-        <v>4.3973730441031117E-2</v>
-      </c>
-      <c r="H4">
-        <v>0.1125167067271014</v>
-      </c>
-      <c r="J4">
-        <f>POWER(B4,2)</f>
-        <v>2.992998776479024E-2</v>
-      </c>
-      <c r="K4">
-        <f t="shared" ref="K4:P4" si="0">POWER(C4,2)</f>
-        <v>1.8591966701578463E-2</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="0"/>
-        <v>8.0985719592115873E-4</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="0"/>
-        <v>4.0269646950703557E-5</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="0"/>
-        <v>2.6243085070306427E-4</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="0"/>
-        <v>1.9336889689004666E-3</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="0"/>
-        <v>1.2660009292712545E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>2.6958920168504551E-2</v>
-      </c>
-      <c r="C5">
-        <v>1.2000396707329169E-2</v>
-      </c>
-      <c r="D5">
-        <v>1.4103738319409529E-3</v>
-      </c>
-      <c r="E5">
-        <v>5.4951008198325579E-3</v>
-      </c>
-      <c r="F5">
-        <v>2.153687442125597E-3</v>
-      </c>
-      <c r="G5">
-        <v>6.81636733242538E-3</v>
-      </c>
-      <c r="H5">
-        <v>1.9590000000000031E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>0.29953775509803171</v>
-      </c>
-      <c r="C6">
-        <v>6.9085553593500215E-2</v>
-      </c>
-      <c r="D6">
-        <v>7.0882836218998232E-3</v>
-      </c>
-      <c r="E6">
-        <v>9.0258092260589104E-3</v>
-      </c>
-      <c r="F6">
-        <v>1.302420940449861E-2</v>
-      </c>
-      <c r="G6">
-        <v>2.1509545911030051E-2</v>
-      </c>
-      <c r="H6">
-        <v>0.12870999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0.43125316574532557</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.1614035087719298</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1.3094682017702241E-2</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1.149590573646671E-2</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1.9072957231200199E-2</v>
-      </c>
-      <c r="G7" s="4">
-        <v>3.7782955541329197E-2</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0.19291</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
       <c r="B8">
-        <v>0.48352821920827649</v>
+        <v>-8.2681524188345693E-2</v>
       </c>
       <c r="C8">
-        <v>0.26749100276440718</v>
+        <v>0.41252463694249292</v>
       </c>
       <c r="D8">
-        <v>2.6729494563288929E-2</v>
+        <v>0.17033347204294719</v>
       </c>
       <c r="E8">
-        <v>1.7546050756001401E-2</v>
+        <v>0.82037052339916106</v>
       </c>
       <c r="F8">
-        <v>3.3223125854808452E-2</v>
+        <v>0.285509673161083</v>
       </c>
       <c r="G8">
-        <v>6.1308241336042443E-2</v>
+        <v>0.17872848839081079</v>
       </c>
       <c r="H8">
-        <v>0.28810000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>0.7242299880130616</v>
-      </c>
-      <c r="C9">
-        <v>0.59898300000000015</v>
-      </c>
-      <c r="D9">
-        <v>0.11678043453866881</v>
-      </c>
-      <c r="E9">
-        <v>2.908297700369961E-2</v>
-      </c>
-      <c r="F9">
-        <v>6.4107208216831274E-2</v>
-      </c>
-      <c r="G9">
-        <v>0.18108628564825699</v>
-      </c>
-      <c r="H9">
-        <v>0.46271000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <v>0.45115572830674261</v>
-      </c>
-      <c r="C10">
-        <v>0.74637721620745234</v>
-      </c>
-      <c r="D10">
-        <v>1.1826053213812691</v>
-      </c>
-      <c r="E10">
-        <v>0.46353150606173821</v>
-      </c>
-      <c r="F10">
-        <v>0.67221058667089728</v>
-      </c>
-      <c r="G10">
-        <v>0.86715642793054826</v>
-      </c>
-      <c r="H10">
-        <v>0.52945588611504724</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>-0.34349604818126661</v>
-      </c>
-      <c r="C11">
-        <v>0.88617490088455142</v>
-      </c>
-      <c r="D11">
-        <v>4.3522063342909698</v>
-      </c>
-      <c r="E11">
-        <v>0.1050679389427831</v>
-      </c>
-      <c r="F11">
-        <v>0.42832078564486542</v>
-      </c>
-      <c r="G11">
-        <v>1.9448882705397279</v>
-      </c>
-      <c r="H11">
-        <v>-0.35655122065830808</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>-0.44146201376874838</v>
-      </c>
-      <c r="C12">
-        <v>0.91522338610821097</v>
-      </c>
-      <c r="D12">
-        <v>2.1607088697856951</v>
-      </c>
-      <c r="E12">
-        <v>1.0189791228321941</v>
-      </c>
-      <c r="F12">
-        <v>1.054262870853329</v>
-      </c>
-      <c r="G12">
-        <v>1.590371423109616</v>
-      </c>
-      <c r="H12">
-        <v>0.56228342672301646</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <f>B9-B5</f>
-        <v>0.69727106784455706</v>
-      </c>
-      <c r="C16">
-        <f t="shared" ref="C16:H16" si="1">C9-C5</f>
-        <v>0.58698260329267093</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
-        <v>0.11537006070672785</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="1"/>
-        <v>2.3587876183867051E-2</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
-        <v>6.195352077470568E-2</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
-        <v>0.17426991831583161</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="1"/>
-        <v>0.44311999999999996</v>
-      </c>
-      <c r="J16">
-        <f>MIN(B16:H16)</f>
-        <v>2.3587876183867051E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <f>B7-B3</f>
-        <v>4.778722719394185E-2</v>
-      </c>
-      <c r="C17">
-        <f t="shared" ref="C17:H17" si="2">C7-C3</f>
-        <v>-2.1282081472994208E-2</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="2"/>
-        <v>-1.0969128202393279E-2</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="2"/>
-        <v>-2.1942898488657107E-3</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="2"/>
-        <v>-5.026213375528131E-3</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="2"/>
-        <v>-1.2927307364722897E-2</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="2"/>
-        <v>-1.9603846153846111E-2</v>
+        <v>-8.6638652355200504E-2</v>
       </c>
     </row>
   </sheetData>
@@ -955,15 +1078,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -989,7 +1110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1015,12 +1136,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.38234904765469918</v>
+        <v>0.38234904765469913</v>
       </c>
       <c r="C3">
         <v>0.18356896848428561</v>
@@ -1029,24 +1150,30 @@
         <v>2.4465134935129321E-2</v>
       </c>
       <c r="E3">
-        <v>1.3775287664921729E-2</v>
+        <v>1.377528766492174E-2</v>
       </c>
       <c r="F3">
         <v>2.333373930776466E-2</v>
       </c>
       <c r="G3">
-        <v>5.0115564624446371E-2</v>
+        <v>5.0115564624446378E-2</v>
       </c>
       <c r="H3">
         <v>0.21599868421052629</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
+      <c r="B4">
+        <v>0.17518259363461211</v>
+      </c>
+      <c r="C4">
+        <v>0.1380695325627305</v>
+      </c>
       <c r="D4">
-        <v>2.8727931724003258E-2</v>
+        <v>2.8727931724003269E-2</v>
       </c>
       <c r="E4">
         <v>6.4084317831837817E-3</v>
@@ -1055,45 +1182,13 @@
         <v>1.5686188319569031E-2</v>
       </c>
       <c r="G4">
-        <v>4.4404786611303919E-2</v>
+        <v>4.4404786611303933E-2</v>
       </c>
       <c r="H4">
         <v>0.1118738191765206</v>
       </c>
-      <c r="I4">
-        <f>MAX(B4:H4)</f>
-        <v>0.1118738191765206</v>
-      </c>
-      <c r="K4">
-        <f>POWER(B4,2)</f>
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <f t="shared" ref="L4:Q4" si="0">POWER(C4,2)</f>
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="0"/>
-        <v>8.2529406113899281E-4</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="0"/>
-        <v>4.1067997919720062E-5</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="0"/>
-        <v>2.4605650399698388E-4</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="0"/>
-        <v>1.9717850739954359E-3</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="0"/>
-        <v>1.2515751417140829E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1118,11 +1213,8 @@
       <c r="H5">
         <v>1.9590000000000031E-2</v>
       </c>
-      <c r="K5">
-        <v>2.992998776479025E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1148,7 +1240,7 @@
         <v>0.1350775000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1174,7 +1266,7 @@
         <v>0.19363</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1200,7 +1292,7 @@
         <v>0.29037000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1226,7 +1318,7 @@
         <v>0.46271000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1234,13 +1326,13 @@
         <v>0.45817452589242519</v>
       </c>
       <c r="C10">
-        <v>0.75213982898503862</v>
+        <v>0.75213982898503851</v>
       </c>
       <c r="D10">
         <v>1.17423965983335</v>
       </c>
       <c r="E10">
-        <v>0.46521219295496957</v>
+        <v>0.46521219295496952</v>
       </c>
       <c r="F10">
         <v>0.6722535172212718</v>
@@ -1252,86 +1344,56 @@
         <v>0.51793750311682962</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="2">
-        <v>-0.41816727469189591</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.77486021910142622</v>
-      </c>
-      <c r="D11" s="2">
-        <v>4.1573378686645732</v>
-      </c>
-      <c r="E11" s="2">
-        <v>8.7304197023554408E-3</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.92000811147184169</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1.989552644406267</v>
-      </c>
-      <c r="H11" s="2">
+      <c r="B11">
+        <v>-0.4181672746918963</v>
+      </c>
+      <c r="C11">
+        <v>0.77486021910142355</v>
+      </c>
+      <c r="D11">
+        <v>4.1573378686645679</v>
+      </c>
+      <c r="E11">
+        <v>8.730419702351444E-3</v>
+      </c>
+      <c r="F11">
+        <v>0.92000811147183992</v>
+      </c>
+      <c r="G11">
+        <v>1.9895526444062639</v>
+      </c>
+      <c r="H11">
         <v>-0.3473751471141111</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="2">
-        <v>-0.41751697087092449</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.88676150939257969</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2.1202367959670649</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.9792140578986982</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1.1670788610488481</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1.6271596317290591</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="B12">
+        <v>-0.41751697087092349</v>
+      </c>
+      <c r="C12">
+        <v>0.88676150939257903</v>
+      </c>
+      <c r="D12">
+        <v>2.120236795967064</v>
+      </c>
+      <c r="E12">
+        <v>0.97921405789869631</v>
+      </c>
+      <c r="F12">
+        <v>1.1670788610488469</v>
+      </c>
+      <c r="G12">
+        <v>1.627159631729058</v>
+      </c>
+      <c r="H12">
         <v>0.53697079647705426</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <f>B7-B3</f>
-        <v>5.5094371987238544E-2</v>
-      </c>
-      <c r="C15">
-        <f t="shared" ref="C15:H15" si="1">C7-C3</f>
-        <v>-2.01701466041391E-2</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
-        <v>-1.1085081261563851E-2</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>-2.2438711473215089E-3</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
-        <v>-4.4930185081907409E-3</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
-        <v>-1.2943424886239674E-2</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="1"/>
-        <v>-2.2368684210526291E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1440,7 +1502,7 @@
         <v>2.992998776479025E-2</v>
       </c>
       <c r="B2">
-        <v>1.4316401084298771E-2</v>
+        <v>1.431640108429876E-2</v>
       </c>
       <c r="C2">
         <v>-1.515865579011977E-3</v>
@@ -1449,18 +1511,18 @@
         <v>-2.389217265734569E-5</v>
       </c>
       <c r="E2">
-        <v>-1.6690207346239979E-4</v>
+        <v>-1.6690207346239971E-4</v>
       </c>
       <c r="F2">
-        <v>5.1290605412504184E-4</v>
+        <v>5.1290605412504216E-4</v>
       </c>
       <c r="G2">
-        <v>2.8736878277355639E-3</v>
+        <v>2.873687827735563E-3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1.4316401084298771E-2</v>
+        <v>1.431640108429876E-2</v>
       </c>
       <c r="B3">
         <v>1.859196670157846E-2</v>
@@ -1469,16 +1531,16 @@
         <v>-9.112962593445953E-4</v>
       </c>
       <c r="D3">
-        <v>3.2333586215992798E-4</v>
+        <v>3.2333586215992809E-4</v>
       </c>
       <c r="E3">
-        <v>-5.5738029555772966E-4</v>
+        <v>-5.5738029555772988E-4</v>
       </c>
       <c r="F3">
         <v>-1.164623850223897E-3</v>
       </c>
       <c r="G3">
-        <v>2.1628439233011328E-3</v>
+        <v>2.162843923301132E-3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1489,16 +1551,16 @@
         <v>-9.112962593445953E-4</v>
       </c>
       <c r="C4">
-        <v>8.0985719592115894E-4</v>
+        <v>8.0985719592115873E-4</v>
       </c>
       <c r="D4">
-        <v>5.5998098989905433E-5</v>
+        <v>5.5998098989905453E-5</v>
       </c>
       <c r="E4">
         <v>1.6386952403087059E-4</v>
       </c>
       <c r="F4">
-        <v>1.1587426288817159E-4</v>
+        <v>1.158742628881717E-4</v>
       </c>
       <c r="G4">
         <v>-1.0303584647350271E-4</v>
@@ -1509,88 +1571,88 @@
         <v>-2.389217265734569E-5</v>
       </c>
       <c r="B5">
-        <v>3.2333586215992798E-4</v>
+        <v>3.2333586215992809E-4</v>
       </c>
       <c r="C5">
-        <v>5.5998098989905433E-5</v>
+        <v>5.5998098989905453E-5</v>
       </c>
       <c r="D5">
         <v>4.026964695070355E-5</v>
       </c>
       <c r="E5">
-        <v>4.3027922572186631E-6</v>
+        <v>4.3027922572186648E-6</v>
       </c>
       <c r="F5">
         <v>1.769986269658991E-5</v>
       </c>
       <c r="G5">
-        <v>2.0700518289202809E-4</v>
+        <v>2.0700518289202801E-4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>-1.6690207346239979E-4</v>
+        <v>-1.6690207346239971E-4</v>
       </c>
       <c r="B6">
-        <v>-5.5738029555772966E-4</v>
+        <v>-5.5738029555772988E-4</v>
       </c>
       <c r="C6">
         <v>1.6386952403087059E-4</v>
       </c>
       <c r="D6">
-        <v>4.3027922572186631E-6</v>
+        <v>4.3027922572186648E-6</v>
       </c>
       <c r="E6">
         <v>2.6243085070306422E-4</v>
       </c>
       <c r="F6">
-        <v>5.7187874940311297E-4</v>
+        <v>5.7187874940311286E-4</v>
       </c>
       <c r="G6">
-        <v>-8.8345497844149079E-5</v>
+        <v>-8.8345497844149242E-5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5.1290605412504184E-4</v>
+        <v>5.1290605412504216E-4</v>
       </c>
       <c r="B7">
         <v>-1.164623850223897E-3</v>
       </c>
       <c r="C7">
-        <v>1.1587426288817159E-4</v>
+        <v>1.158742628881717E-4</v>
       </c>
       <c r="D7">
         <v>1.769986269658991E-5</v>
       </c>
       <c r="E7">
-        <v>5.7187874940311297E-4</v>
+        <v>5.7187874940311286E-4</v>
       </c>
       <c r="F7">
         <v>1.933688968900467E-3</v>
       </c>
       <c r="G7">
-        <v>7.1724946709328277E-4</v>
+        <v>7.1724946709328266E-4</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2.8736878277355639E-3</v>
+        <v>2.873687827735563E-3</v>
       </c>
       <c r="B8">
-        <v>2.1628439233011328E-3</v>
+        <v>2.162843923301132E-3</v>
       </c>
       <c r="C8">
         <v>-1.0303584647350271E-4</v>
       </c>
       <c r="D8">
-        <v>2.0700518289202809E-4</v>
+        <v>2.0700518289202801E-4</v>
       </c>
       <c r="E8">
-        <v>-8.8345497844149079E-5</v>
+        <v>-8.8345497844149242E-5</v>
       </c>
       <c r="F8">
-        <v>7.1724946709328277E-4</v>
+        <v>7.1724946709328266E-4</v>
       </c>
       <c r="G8">
         <v>1.266000929271255E-2</v>
@@ -1643,13 +1705,13 @@
         <v>-0.30789539899315671</v>
       </c>
       <c r="D2">
-        <v>-2.1762734500821598E-2</v>
+        <v>-2.1762734500821591E-2</v>
       </c>
       <c r="E2">
-        <v>-5.9552639934365582E-2</v>
+        <v>-5.9552639934365728E-2</v>
       </c>
       <c r="F2">
-        <v>6.7420387733485646E-2</v>
+        <v>6.7420387733485798E-2</v>
       </c>
       <c r="G2">
         <v>0.14762819388374479</v>
@@ -1663,10 +1725,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>-0.2348511539475972</v>
+        <v>-0.23485115394759731</v>
       </c>
       <c r="D3">
-        <v>0.37368210326160628</v>
+        <v>0.37368210326160639</v>
       </c>
       <c r="E3">
         <v>-0.25233732854976271</v>
@@ -1683,7 +1745,7 @@
         <v>-0.30789539899315671</v>
       </c>
       <c r="B4">
-        <v>-0.2348511539475972</v>
+        <v>-0.23485115394759731</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1692,21 +1754,21 @@
         <v>0.31008456582175209</v>
       </c>
       <c r="E4">
-        <v>0.35545655331205828</v>
+        <v>0.35545655331205839</v>
       </c>
       <c r="F4">
-        <v>9.2595408481934371E-2</v>
+        <v>9.2595408481934316E-2</v>
       </c>
       <c r="G4">
-        <v>-3.2178597267696792E-2</v>
+        <v>-3.2178597267696861E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>-2.1762734500821598E-2</v>
+        <v>-2.1762734500821591E-2</v>
       </c>
       <c r="B5">
-        <v>0.37368210326160628</v>
+        <v>0.37368210326160639</v>
       </c>
       <c r="C5">
         <v>0.31008456582175209</v>
@@ -1715,10 +1777,10 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>4.1855643499040772E-2</v>
+        <v>4.1855643499040758E-2</v>
       </c>
       <c r="F5">
-        <v>6.3428972540994763E-2</v>
+        <v>6.3428972540994874E-2</v>
       </c>
       <c r="G5">
         <v>0.28991807739041409</v>
@@ -1726,48 +1788,48 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>-5.9552639934365582E-2</v>
+        <v>-5.9552639934365728E-2</v>
       </c>
       <c r="B6">
         <v>-0.25233732854976271</v>
       </c>
       <c r="C6">
-        <v>0.35545655331205828</v>
+        <v>0.35545655331205839</v>
       </c>
       <c r="D6">
-        <v>4.1855643499040772E-2</v>
+        <v>4.1855643499040758E-2</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.80279231201706025</v>
+        <v>0.80279231201706014</v>
       </c>
       <c r="G6">
-        <v>-4.8468543150726517E-2</v>
+        <v>-4.8468543150726622E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6.7420387733485646E-2</v>
+        <v>6.7420387733485798E-2</v>
       </c>
       <c r="B7">
         <v>-0.19423598997980901</v>
       </c>
       <c r="C7">
-        <v>9.2595408481934371E-2</v>
+        <v>9.2595408481934316E-2</v>
       </c>
       <c r="D7">
-        <v>6.3428972540994763E-2</v>
+        <v>6.3428972540994874E-2</v>
       </c>
       <c r="E7">
-        <v>0.80279231201706025</v>
+        <v>0.80279231201706014</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.14496391593165081</v>
+        <v>0.1449639159316507</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1778,16 +1840,16 @@
         <v>0.1409761032669942</v>
       </c>
       <c r="C8">
-        <v>-3.2178597267696792E-2</v>
+        <v>-3.2178597267696861E-2</v>
       </c>
       <c r="D8">
         <v>0.28991807739041409</v>
       </c>
       <c r="E8">
-        <v>-4.8468543150726517E-2</v>
+        <v>-4.8468543150726622E-2</v>
       </c>
       <c r="F8">
-        <v>0.14496391593165081</v>
+        <v>0.1449639159316507</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1840,10 +1902,10 @@
         <v>1.3399022512459171E-3</v>
       </c>
       <c r="E2">
-        <v>6.650558920723762E-2</v>
+        <v>6.6505589207237592E-2</v>
       </c>
       <c r="F2">
-        <v>0.63651653640895745</v>
+        <v>0.63651653640895733</v>
       </c>
     </row>
   </sheetData>
@@ -1853,146 +1915,276 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="24" style="3" customWidth="1"/>
+    <col min="6" max="9" width="9.140625" style="3"/>
+    <col min="10" max="10" width="18" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="24" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B2">
-        <v>2.2307011705231741</v>
-      </c>
-      <c r="C2">
-        <v>1.493553203111015</v>
-      </c>
-      <c r="D2">
+      <c r="B2" s="4">
+        <v>2.230701170523175</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.4935532031110159</v>
+      </c>
+      <c r="D2" s="4">
         <v>0.31050052923033172</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>0.31050052923033172</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="J2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="4">
+        <v>4.0214660965079009E-2</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0.2005359343486324</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0.62612146128832391</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0.62612146128832391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B3">
-        <v>1.761386773783312</v>
-      </c>
-      <c r="C3">
-        <v>1.3271724732615999</v>
-      </c>
-      <c r="D3">
-        <v>0.24517471576471001</v>
-      </c>
-      <c r="E3">
-        <v>0.55567524499504173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B3" s="4">
+        <v>1.761386773783314</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.327172473261601</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.2451747157647102</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.55567524499504195</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1.225019196942774E-2</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0.1106805853319711</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0.1907291498396825</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0.81685061112800639</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B4">
-        <v>1.3688530583653431</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="4">
+        <v>1.368853058365344</v>
+      </c>
+      <c r="C4" s="4">
         <v>1.16997993930039</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>0.19053632314242869</v>
       </c>
-      <c r="E4">
-        <v>0.74621156813747036</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="E4" s="4">
+        <v>0.74621156813747058</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="4">
+        <v>9.1141379924771088E-3</v>
+      </c>
+      <c r="L4" s="4">
+        <v>9.5467994597546194E-2</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0.14190241223688471</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0.9587530233648911</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B5">
-        <v>0.91961068209031016</v>
-      </c>
-      <c r="C5">
-        <v>0.95896333719820082</v>
-      </c>
-      <c r="D5">
+      <c r="B5" s="4">
+        <v>0.91961068209031127</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.95896333719820137</v>
+      </c>
+      <c r="D5" s="4">
         <v>0.12800441728729589</v>
       </c>
-      <c r="E5">
-        <v>0.8742159854247662</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="E5" s="4">
+        <v>0.87421598542476653</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1.840127224871087E-3</v>
+      </c>
+      <c r="L5" s="4">
+        <v>4.289670412597088E-2</v>
+      </c>
+      <c r="M5" s="4">
+        <v>2.864982867798373E-2</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.98740285204287481</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B6">
-        <v>0.5437575516214751</v>
-      </c>
-      <c r="C6">
-        <v>0.73739918064876853</v>
-      </c>
-      <c r="D6">
-        <v>7.568786432826391E-2</v>
-      </c>
-      <c r="E6">
-        <v>0.94990384975303011</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B6" s="4">
+        <v>0.54375755162147621</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.73739918064876919</v>
+      </c>
+      <c r="D6" s="4">
+        <v>7.5687864328264021E-2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.94990384975303055</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="4">
+        <v>7.2756021640109532E-4</v>
+      </c>
+      <c r="L6" s="4">
+        <v>2.6973324162978051E-2</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1.1327736077742359E-2</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0.99873058812061721</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B7">
-        <v>0.23213104563556711</v>
-      </c>
-      <c r="C7">
-        <v>0.48179979829340641</v>
-      </c>
-      <c r="D7">
-        <v>3.2311281077478188E-2</v>
-      </c>
-      <c r="E7">
-        <v>0.98221513083050827</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="4">
+        <v>0.23213104563556669</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.48179979829340602</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3.2311281077478118E-2</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.98221513083050871</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="4">
+        <v>6.0052824913825603E-5</v>
+      </c>
+      <c r="L7" s="4">
+        <v>7.7493757757528831E-3</v>
+      </c>
+      <c r="M7" s="4">
+        <v>9.3499140828732022E-4</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.99966557952890456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B8">
-        <v>0.12777024429661041</v>
-      </c>
-      <c r="C8">
-        <v>0.35744963882568193</v>
-      </c>
-      <c r="D8">
-        <v>1.7784869169491551E-2</v>
-      </c>
-      <c r="E8">
-        <v>0.99999999999999978</v>
+      <c r="B8" s="4">
+        <v>0.12777024429661049</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.35744963882568198</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1.7784869169491561E-2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="4">
+        <v>2.1479228386803039E-5</v>
+      </c>
+      <c r="L8" s="4">
+        <v>4.6345688458370154E-3</v>
+      </c>
+      <c r="M8" s="4">
+        <v>3.3442047109558028E-4</v>
+      </c>
+      <c r="N8" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2039,25 +2231,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.35492733438125967</v>
+        <v>-0.35492733438125879</v>
       </c>
       <c r="C2">
-        <v>0.40818616238660782</v>
+        <v>0.40818616238660838</v>
       </c>
       <c r="D2">
-        <v>-0.4055373419941658</v>
+        <v>-0.40553734199416669</v>
       </c>
       <c r="E2">
-        <v>-0.22423336112396619</v>
+        <v>-0.2242333611239653</v>
       </c>
       <c r="F2">
-        <v>0.46753746148223663</v>
+        <v>0.4675374614822364</v>
       </c>
       <c r="G2">
-        <v>-0.50477636820285421</v>
+        <v>-0.50477636820285476</v>
       </c>
       <c r="H2">
-        <v>-0.13884901284181239</v>
+        <v>-0.1388490128418125</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2065,25 +2257,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-0.46778994831341059</v>
+        <v>-0.46778994831340948</v>
       </c>
       <c r="C3">
-        <v>0.42185378630977383</v>
+        <v>0.42185378630977521</v>
       </c>
       <c r="D3">
-        <v>3.3443972856437083E-2</v>
+        <v>3.3443972856436327E-2</v>
       </c>
       <c r="E3">
-        <v>-0.35190737040129061</v>
+        <v>-0.35190737040129072</v>
       </c>
       <c r="F3">
-        <v>-9.7311030736030202E-2</v>
+        <v>-9.7311030736028328E-2</v>
       </c>
       <c r="G3">
-        <v>0.65122856421446351</v>
+        <v>0.65122856421446396</v>
       </c>
       <c r="H3">
-        <v>0.2113919842806965</v>
+        <v>0.2113919842806968</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2091,25 +2283,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.38516861259714558</v>
+        <v>0.38516861259714591</v>
       </c>
       <c r="C4">
-        <v>7.6195538134862545E-2</v>
+        <v>7.6195538134861407E-2</v>
       </c>
       <c r="D4">
-        <v>0.5126590976327221</v>
+        <v>0.51265909763272155</v>
       </c>
       <c r="E4">
-        <v>-0.31286804508228477</v>
+        <v>-0.31286804508228372</v>
       </c>
       <c r="F4">
-        <v>0.64522943307437197</v>
+        <v>0.64522943307437364</v>
       </c>
       <c r="G4">
-        <v>4.4415456154129507E-2</v>
+        <v>4.441545615412882E-2</v>
       </c>
       <c r="H4">
-        <v>0.2585340630715145</v>
+        <v>0.25853406307151422</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2117,25 +2309,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-1.7272496215340018E-2</v>
+        <v>-1.7272496215339252E-2</v>
       </c>
       <c r="C5">
-        <v>0.46223569161418221</v>
+        <v>0.46223569161418282</v>
       </c>
       <c r="D5">
-        <v>0.58675849052734597</v>
+        <v>0.58675849052734652</v>
       </c>
       <c r="E5">
-        <v>-0.1190375557781039</v>
+        <v>-0.11903755577810531</v>
       </c>
       <c r="F5">
-        <v>-0.47006683468312033</v>
+        <v>-0.47006683468312038</v>
       </c>
       <c r="G5">
-        <v>-0.42048447755487478</v>
+        <v>-0.42048447755487423</v>
       </c>
       <c r="H5">
-        <v>-0.1726682815322238</v>
+        <v>-0.1726682815322233</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2143,10 +2335,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.54557518246903947</v>
+        <v>0.54557518246904069</v>
       </c>
       <c r="C6">
-        <v>0.31327229216641822</v>
+        <v>0.31327229216641661</v>
       </c>
       <c r="D6">
         <v>-0.24789567206360849</v>
@@ -2155,13 +2347,13 @@
         <v>-0.18066857894440019</v>
       </c>
       <c r="F6">
-        <v>-1.7001722644511549E-2</v>
+        <v>-1.7001722644511139E-2</v>
       </c>
       <c r="G6">
-        <v>0.31027445880395071</v>
+        <v>0.3102744588039506</v>
       </c>
       <c r="H6">
-        <v>-0.64308280433397536</v>
+        <v>-0.64308280433397558</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2169,16 +2361,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.44950799563767108</v>
+        <v>0.44950799563767307</v>
       </c>
       <c r="C7">
-        <v>0.40943832265038682</v>
+        <v>0.40943832265038571</v>
       </c>
       <c r="D7">
-        <v>-0.36993287554674731</v>
+        <v>-0.36993287554674692</v>
       </c>
       <c r="E7">
-        <v>9.0417465221386481E-2</v>
+        <v>9.0417465221385926E-2</v>
       </c>
       <c r="F7">
         <v>-0.2298925901196549</v>
@@ -2187,7 +2379,7 @@
         <v>-0.118777667499325</v>
       </c>
       <c r="H7">
-        <v>0.64677541240154701</v>
+        <v>0.64677541240154746</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2195,25 +2387,176 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-8.2681524188346567E-2</v>
+        <v>-8.2681524188345693E-2</v>
       </c>
       <c r="C8">
-        <v>0.41252463694249231</v>
+        <v>0.41252463694249292</v>
       </c>
       <c r="D8">
-        <v>0.1703334720429471</v>
+        <v>0.17033347204294719</v>
       </c>
       <c r="E8">
-        <v>0.82037052339916061</v>
+        <v>0.82037052339916106</v>
       </c>
       <c r="F8">
-        <v>0.2855096731610845</v>
+        <v>0.285509673161083</v>
       </c>
       <c r="G8">
-        <v>0.1787284883908111</v>
+        <v>0.17872848839081079</v>
       </c>
       <c r="H8">
-        <v>-8.6638652355200393E-2</v>
+        <v>-8.6638652355200504E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>4.0214660965079009E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.2005359343486324</v>
+      </c>
+      <c r="D2">
+        <v>0.62612146128832391</v>
+      </c>
+      <c r="E2">
+        <v>0.62612146128832391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>1.225019196942774E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.1106805853319711</v>
+      </c>
+      <c r="D3">
+        <v>0.1907291498396825</v>
+      </c>
+      <c r="E3">
+        <v>0.81685061112800639</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>9.1141379924771088E-3</v>
+      </c>
+      <c r="C4">
+        <v>9.5467994597546194E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.14190241223688471</v>
+      </c>
+      <c r="E4">
+        <v>0.9587530233648911</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>1.840127224871087E-3</v>
+      </c>
+      <c r="C5">
+        <v>4.289670412597088E-2</v>
+      </c>
+      <c r="D5">
+        <v>2.864982867798373E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.98740285204287481</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>7.2756021640109532E-4</v>
+      </c>
+      <c r="C6">
+        <v>2.6973324162978051E-2</v>
+      </c>
+      <c r="D6">
+        <v>1.1327736077742359E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.99873058812061721</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7">
+        <v>6.0052824913825603E-5</v>
+      </c>
+      <c r="C7">
+        <v>7.7493757757528831E-3</v>
+      </c>
+      <c r="D7">
+        <v>9.3499140828732022E-4</v>
+      </c>
+      <c r="E7">
+        <v>0.99966557952890456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>2.1479228386803039E-5</v>
+      </c>
+      <c r="C8">
+        <v>4.6345688458370154E-3</v>
+      </c>
+      <c r="D8">
+        <v>3.3442047109558028E-4</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/OUTPUT_TP FINAL.xlsx
+++ b/OUTPUT_TP FINAL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2489b4ab3e3a2fa6/Escritorio/David Guzzi/Github/MECMT04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="11_4F6569980AF4C574B44AF39C8E60E31B996CC677" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F15B85A5-E55C-4C0F-86BE-64F35A687442}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="11_4F6569980AF4C574B44AF39C8E60E31B996CC677" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2F97A93-7476-411F-8C8B-E08DAD644592}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="describe" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,20 @@
     <sheet name="variables_PCA_2" sheetId="9" r:id="rId9"/>
     <sheet name="coeficientespca_2" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -155,7 +168,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,9 +183,17 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -209,27 +233,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -243,6 +269,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1470,9 +1500,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="69.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1917,22 +1958,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="24" style="3" customWidth="1"/>
-    <col min="6" max="9" width="9.140625" style="3"/>
-    <col min="10" max="10" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="24" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="24" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1947,7 +1986,7 @@
       <c r="E1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>38</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -1964,226 +2003,226 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>2.230701170523175</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>1.4935532031110159</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>0.31050052923033172</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>0.31050052923033172</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <v>4.0214660965079009E-2</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="3">
         <v>0.2005359343486324</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="3">
         <v>0.62612146128832391</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="3">
         <v>0.62612146128832391</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>1.761386773783314</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>1.327172473261601</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>0.2451747157647102</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>0.55567524499504195</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>1.225019196942774E-2</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="3">
         <v>0.1106805853319711</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="3">
         <v>0.1907291498396825</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="3">
         <v>0.81685061112800639</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>1.368853058365344</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>1.16997993930039</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>0.19053632314242869</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>0.74621156813747058</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>9.1141379924771088E-3</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <v>9.5467994597546194E-2</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <v>0.14190241223688471</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="3">
         <v>0.9587530233648911</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>0.91961068209031127</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>0.95896333719820137</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>0.12800441728729589</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>0.87421598542476653</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>1.840127224871087E-3</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <v>4.289670412597088E-2</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="3">
         <v>2.864982867798373E-2</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="3">
         <v>0.98740285204287481</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>0.54375755162147621</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>0.73739918064876919</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>7.5687864328264021E-2</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>0.94990384975303055</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>7.2756021640109532E-4</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <v>2.6973324162978051E-2</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="3">
         <v>1.1327736077742359E-2</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="3">
         <v>0.99873058812061721</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>0.23213104563556669</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>0.48179979829340602</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>3.2311281077478118E-2</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>0.98221513083050871</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <v>6.0052824913825603E-5</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
         <v>7.7493757757528831E-3</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="3">
         <v>9.3499140828732022E-4</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="3">
         <v>0.99966557952890456</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>0.12777024429661049</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>0.35744963882568198</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>1.7784869169491561E-2</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <v>2.1479228386803039E-5</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="3">
         <v>4.6345688458370154E-3</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="3">
         <v>3.3442047109558028E-4</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2415,13 +2454,20 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -2559,6 +2605,27 @@
         <v>1</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
